--- a/analyses/inputs/LB/template.xlsx
+++ b/analyses/inputs/LB/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF6CCC-E90D-416B-BF10-95288FCCDB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138FEA2E-D846-46C9-8E0A-17D2D44BCC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -3308,11 +3308,11 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1450">
@@ -6210,7 +6210,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7001,8 +7001,8 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7536,23 +7536,23 @@
         <v>85</v>
       </c>
       <c r="C12" s="93">
-        <f>diarrhoea_1mo/26</f>
+        <f>diarrhoea_1mo</f>
         <v>0</v>
       </c>
       <c r="D12" s="93">
-        <f>diarrhoea_1_5mo/26</f>
+        <f>diarrhoea_1_5mo</f>
         <v>0</v>
       </c>
       <c r="E12" s="93">
-        <f>diarrhoea_6_11mo/26</f>
+        <f>diarrhoea_6_11mo</f>
         <v>0</v>
       </c>
       <c r="F12" s="93">
-        <f>diarrhoea_12_23mo/26</f>
+        <f>diarrhoea_12_23mo</f>
         <v>0</v>
       </c>
       <c r="G12" s="93">
-        <f>diarrhoea_24_59mo/26</f>
+        <f>diarrhoea_24_59mo</f>
         <v>0</v>
       </c>
       <c r="H12" s="94">
@@ -11760,7 +11760,7 @@
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -11783,7 +11783,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="145"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
       </c>
@@ -11805,7 +11805,7 @@
       <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="145"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
       </c>
@@ -11827,7 +11827,7 @@
       <c r="J4" s="106"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -11851,7 +11851,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="145"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
       </c>
@@ -11872,7 +11872,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="145"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
       </c>
@@ -11893,7 +11893,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -11916,7 +11916,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="145"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
       </c>
@@ -11937,7 +11937,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="145"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
       </c>
@@ -11958,7 +11958,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -11981,7 +11981,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="145"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
       </c>
@@ -12002,7 +12002,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="145"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
       </c>
@@ -12023,7 +12023,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -12046,7 +12046,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="145"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
       </c>
@@ -12067,7 +12067,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="145"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
       </c>
@@ -12121,7 +12121,7 @@
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -12144,7 +12144,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="145"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
       </c>
@@ -12165,7 +12165,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="145"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
       </c>
@@ -12186,7 +12186,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -12209,7 +12209,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="145"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
       </c>
@@ -12230,7 +12230,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="145"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
       </c>
@@ -12251,7 +12251,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -12274,7 +12274,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="145"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="145"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
       </c>
@@ -12316,7 +12316,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -12339,7 +12339,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="145"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
       </c>
@@ -12360,7 +12360,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="145"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
       </c>
@@ -12381,7 +12381,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -12404,7 +12404,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="145"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
       </c>
@@ -12425,7 +12425,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="145"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
       </c>
@@ -12479,7 +12479,7 @@
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -12502,7 +12502,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="145"/>
+      <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
       </c>
@@ -12523,7 +12523,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="145"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
       </c>
@@ -12544,7 +12544,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -12567,7 +12567,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="145"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
       </c>
@@ -12588,7 +12588,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="145"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
       </c>
@@ -12609,7 +12609,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -12632,7 +12632,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="145"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
       </c>
@@ -12653,7 +12653,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="145"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
       </c>
@@ -12674,7 +12674,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -12697,7 +12697,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="145"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
       </c>
@@ -12718,7 +12718,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="145"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
       </c>
@@ -12739,7 +12739,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="145" t="s">
+      <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -12762,7 +12762,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="145"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
       </c>
@@ -12783,7 +12783,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="145"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
       </c>
@@ -12829,12 +12829,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12844,6 +12838,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -20949,8 +20949,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21138,7 +21138,7 @@
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="146">
+      <c r="C13" s="145">
         <f>U5_mortality</f>
         <v>0</v>
       </c>
@@ -21155,7 +21155,7 @@
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="146">
+      <c r="C14" s="145">
         <f>maternal_mortality</f>
         <v>0</v>
       </c>
@@ -21182,7 +21182,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21297,9 +21297,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="81"/>
-      <c r="D9" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
